--- a/WebApi_project/_Data/doc/部門収支計画.xlsx
+++ b/WebApi_project/_Data/doc/部門収支計画.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中村博\OneDrive - ＥＭＧ\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hr-nakamura\WebApi_project\WebApi_project\_Data\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{201AAF1F-00E2-43AF-AE5A-D297318402B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B565110-1B3D-4615-BCEC-0B5A06ADA95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{657EBD18-B3BA-4CC5-8B77-50BEDB8EC453}"/>
+    <workbookView xWindow="0" yWindow="375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{657EBD18-B3BA-4CC5-8B77-50BEDB8EC453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>onload</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +84,23 @@
   </si>
   <si>
     <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ収支計画</t>
+    <rPh sb="4" eb="8">
+      <t>シュウシケイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課選択</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -322,8 +340,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1230</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="インク 3">
@@ -342,7 +360,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="インク 3">
@@ -387,8 +405,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>228780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="インク 6">
@@ -407,7 +425,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="インク 6">
@@ -452,8 +470,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>39195</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="インク 9">
@@ -472,7 +490,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="インク 9">
@@ -517,8 +535,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>229755</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="インク 12">
@@ -537,7 +555,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="インク 12">
@@ -559,6 +577,336 @@
             <a:xfrm>
               <a:off x="7086960" y="3115110"/>
               <a:ext cx="315000" cy="695520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>350280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1230</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="インク 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3056FEFD-B8F8-4B8D-B676-263F387A979F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1580760" y="1437840"/>
+            <a:ext cx="141120" cy="944640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="インク 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F5E673D-5AE1-3A2C-1F5C-4BAFD1CFA782}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1572120" y="1429200"/>
+              <a:ext cx="158760" cy="962280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275760</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="インク 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BE68FA-E550-4FCF-9B56-055021009869}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2333160" y="1931760"/>
+            <a:ext cx="601920" cy="1154520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="インク 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BFE047-9505-1C1C-3285-B653F5CE0F1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2324520" y="1923117"/>
+              <a:ext cx="619560" cy="1172166"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>112965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39195</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="インク 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C01807E-87F5-44B8-83B7-3BFC6E57F867}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3447720" y="1779840"/>
+            <a:ext cx="3392640" cy="402480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="インク 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28055C81-4965-1DA4-F710-B017306386D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3439080" y="1770848"/>
+              <a:ext cx="3410280" cy="420104"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>229755</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="インク 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53FD6B5-92B4-416A-AA94-28230A6E8328}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7095600" y="3123750"/>
+            <a:ext cx="297360" cy="677880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="インク 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94961215-1362-D3D4-8E7A-42A22A96469D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7086960" y="3115110"/>
+              <a:ext cx="315000" cy="695520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>237630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181080</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>212355</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="インク 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD12CD6-5E55-F3B3-BB30-9EA32424AA01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1794240" y="713880"/>
+            <a:ext cx="1130040" cy="1641600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="インク 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD12CD6-5E55-F3B3-BB30-9EA32424AA01}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1785240" y="705240"/>
+              <a:ext cx="1147680" cy="1659240"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -685,6 +1033,151 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">266 1 24575,'26'387'0,"1"23"0,-27 225 0,-2-606 22,-2 1 0,0-1-1,-2 0 1,-1 0-1,-11 27 1,5-16-769,-10 60-1,19-75-6078</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2336.01">1 1562 24575,'1'7'0,"0"1"0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,8 11 0,7 17 0,0 11 0,-13-28 0,1-1 0,1 0 0,0-1 0,21 30 0,-27-42 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,8-1 0,-3-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,8-8 0,-8 7 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 1 0,12-4 0,41-5-240,0 4-1,110-3 1,-143 10-404,23 0-6182</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-15T03:40:35.692"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 1 24575,'0'1167'0,"2"-1120"0,3 0 0,15 66 0,-11-66 0,-1 0 0,2 68 0,-9-91 0,2 1 0,7 33 0,2 12 0,13 93 0,4 35 0,-3-47 76,-17-110-557,-2 0 1,4 77 0,-11-89-6346</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 2462 24575,'9'1'0,"0"1"0,0 0 0,0 1 0,0-1 0,0 2 0,0 0 0,10 6 0,12 4 0,-22-11 0,22 10 0,38 20 0,-60-28 0,0 0 0,-1 1 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 1 0,9 11 0,-21-27 0,1-1 0,0-1 0,0 1 0,1 0 0,0-1 0,1 0 0,-2-13 0,-5-76 0,9 87 14,0 0-1,1 0 0,0 0 0,1 0 1,0 1-1,1-1 0,0 1 1,7-15-1,-7 19-106,0 1 0,0 0 1,1 0-1,-1 0 0,2 1 0,-1-1 0,0 1 0,1 0 1,0 0-1,0 0 0,1 1 0,-1 0 0,1 0 1,0 0-1,10-4 0,5 0-6733</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-15T03:40:35.694"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3206 24575,'1'-1'0,"1"1"0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-4 0,8-6 0,271-254 0,-59 58 0,593-630 0,-780 795 0,-2-2 0,38-66 0,-37 56 0,-21 35 0,0 0 0,-2-1 0,0 0 0,-1-1 0,-1-1 0,11-40 0,6-27 0,-19 69 0,-1 0 0,0-1 0,4-36 0,-5-45 0,-10-120 0,-2 174 0,-1 0 0,-3 0 0,-29-80 0,22 72 0,14 44 0,-12-40 0,-28-61 0,36 97 0,0 0 0,-2 1 0,1 0 0,-2 0 0,0 1 0,-1 0 0,-23-20 0,16 18-151,1-1-1,1-1 0,1 0 0,0-1 1,1-1-1,1 0 0,2-1 1,-16-33-1,20 34-6674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1139 243 24575,'10'-45'0,"0"9"0,-8 13 0,-1 11 0,1 0 0,-1 1 0,2-1 0,0 0 0,5-14 0,-6 23 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1 0 0,0-1 0,1 1 0,0 0 0,6-1 0,12 0-89,0 1-1,39 2 1,-37 0-1008,-1 0-5729</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-15T03:40:35.696"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 3 24575,'333'-3'0,"544"17"0,-752 1 0,147 35 0,31 6 0,807 116 0,-825-142 0,-97-15 0,673 113 0,-387-53 0,189 34 0,-80 1 0,-517-94 0,2-3 0,0-2 0,87 1 0,-46-5 0,0 5 0,127 30 0,-53-9 0,-90-17 0,159 6 0,-65-25 0,141 4 0,-180 11 0,122 3 0,-160-14 0,131-4 0,-212-1 0,0-1 0,-1-1 0,32-11 0,21-6 0,-14 12-77,1 3 1,0 3-1,92 5 0,-80 1-981,-58-1-5768</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">9129 638 24575,'9'1'0,"0"0"0,1 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,0 0 0,0 1 0,-1 0 0,10 9 0,3 5 0,0 1 0,-2 0 0,26 38 0,-37-48 0,0 0 0,-1 1 0,0 0 0,0 1 0,-1-1 0,-1 1 0,0 0 0,-1 0 0,-1 1 0,0-1 0,0 0 0,-1 1 0,-1-1 0,-2 22 0,1-32 4,1 1 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1-1 0,0 0 0,-1 1 0,-5 0 0,-7 1-239,-1-1 0,0 0-1,1-1 1,-27-2 0,35 1-64,-15 0-6527</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-15T03:40:35.698"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">266 1 24575,'26'387'0,"1"23"0,-27 225 0,-2-606 22,-2 1 0,0-1-1,-2 0 1,-1 0-1,-11 27 1,5-16-769,-10 60-1,19-75-6078</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1 1562 24575,'1'7'0,"0"1"0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,8 11 0,7 17 0,0 11 0,-13-28 0,1-1 0,1 0 0,0-1 0,21 30 0,-27-42 0,1-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,8-1 0,-3-1 0,0 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,-1-1 0,8-8 0,-8 7 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 1 0,12-4 0,41-5-240,0 4-1,110-3 1,-143 10-404,23 0-6182</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-11-15T03:42:27.075"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3139 1 24575,'-7'7'0,"1"0"0,0 1 0,1 0 0,-8 15 0,-10 14 0,-173 225 0,-66 95 0,178-227 0,-49 69 0,-137 206 0,263-393 0,-174 244 0,24-39 0,17-21 0,-44 25 0,103-115 0,-75 104 0,149-198 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,1 0 0,1 0 0,-3 29 0,3 6 0,4 66 0,1-78 0,-1 1 0,-2 0 0,-8 46 0,3-60 0,-1-1 0,-1 0 0,-2 0 0,0 0 0,-16 25 0,6-12 0,-13 32 0,-37 62 0,-47 63 0,-14 12 0,105-165 0,-2-1 0,-43 46 0,39-53 0,-1-1 0,-1-2 0,-2-2 0,0-1 0,-2-1 0,-1-3 0,-1-1 0,-47 18 0,76-34 7,0 2-1,1-1 0,-1 1 1,1 1-1,1 0 0,-1 0 1,2 1-1,-1 0 1,1 1-1,-9 13 0,-32 33-1441,27-36-5391</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2220.52">43 4208 24575,'-1'14'0,"-1"1"0,-1 0 0,0-1 0,-1 1 0,-5 14 0,5-21 0,0 1 0,1 0 0,1 0 0,-1 0 0,2 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,0-1 0,1 1 0,0-1 0,4 19 0,-3-25 0,0 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,6 1 0,11 1 0,1-1 0,38-3 0,-36 0 0,357-3-328,-302 6-709,-68-1-5789</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -987,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E16ADC-79C1-4FCA-B85B-12EF20FA5D1B}">
   <dimension ref="C2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -1197,4 +1690,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606F0B5-6531-4AAB-9BE5-7FBDF4C3231E}">
+  <dimension ref="C2:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="K11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="K12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="K13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="K17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WebApi_project/_Data/doc/部門収支計画.xlsx
+++ b/WebApi_project/_Data/doc/部門収支計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hr-nakamura\WebApi_project\WebApi_project\_Data\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B565110-1B3D-4615-BCEC-0B5A06ADA95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B5B3A-87C2-4327-B757-BE85B9A9939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="375" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{657EBD18-B3BA-4CC5-8B77-50BEDB8EC453}"/>
+    <workbookView xWindow="14895" yWindow="885" windowWidth="12900" windowHeight="11325" xr2:uid="{657EBD18-B3BA-4CC5-8B77-50BEDB8EC453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>onload</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,14 @@
     <rPh sb="1" eb="3">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main_para</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sub_para</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,8 +873,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>212355</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="インク 7">
@@ -885,7 +893,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="インク 7">
@@ -1480,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E16ADC-79C1-4FCA-B85B-12EF20FA5D1B}">
   <dimension ref="C2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1534,13 +1542,17 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0606F0B5-6531-4AAB-9BE5-7FBDF4C3231E}">
   <dimension ref="C2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
